--- a/org-tweetyproject-arg-rankings/src/main/java/org/tweetyproject/arg/rankings/rankingbasedextension/evaluation/results/final_results/Threshold_evaluation_for_COUNTING_using_absolute_argument strength_all_withoutbigafs_deatiled.xlsx
+++ b/org-tweetyproject-arg-rankings/src/main/java/org/tweetyproject/arg/rankings/rankingbasedextension/evaluation/results/final_results/Threshold_evaluation_for_COUNTING_using_absolute_argument strength_all_withoutbigafs_deatiled.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TweetyProject\org-tweetyproject-arg-rankings\src\main\java\org\tweetyproject\arg\rankings\rankingbasedextension\evaluation\results\final_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C449E61E-92D8-4942-90C0-568E83E6723C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8191448-F8F9-4531-AF01-DEE36D2F8A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="22005" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threshold_evaluation_for_COUNTI" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,9 +515,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -635,7 +634,7 @@
               </c:extLst>
               <c:f>Threshold_evaluation_for_COUNTI!$A$2:$A$1048576</c:f>
               <c:strCache>
-                <c:ptCount val="361"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>0.964</c:v>
                 </c:pt>
@@ -1715,9 +1714,6 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>0.9999</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>100,000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1727,14 +1723,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Threshold_evaluation_for_COUNTI!$B$2:$B$362</c15:sqref>
+                    <c15:sqref>Threshold_evaluation_for_COUNTI!$B$2:$B$361</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Threshold_evaluation_for_COUNTI!$B$3:$B$362</c:f>
+              <c:f>Threshold_evaluation_for_COUNTI!$B$3:$B$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="360"/>
+                <c:ptCount val="359"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -2811,9 +2807,6 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2863,7 +2856,7 @@
               </c:extLst>
               <c:f>Threshold_evaluation_for_COUNTI!$A$2:$A$1048576</c:f>
               <c:strCache>
-                <c:ptCount val="361"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>0.964</c:v>
                 </c:pt>
@@ -3943,9 +3936,6 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>0.9999</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>100,000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3955,14 +3945,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Threshold_evaluation_for_COUNTI!$C$2:$C$362</c15:sqref>
+                    <c15:sqref>Threshold_evaluation_for_COUNTI!$C$2:$C$361</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Threshold_evaluation_for_COUNTI!$C$3:$C$362</c:f>
+              <c:f>Threshold_evaluation_for_COUNTI!$C$3:$C$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="360"/>
+                <c:ptCount val="359"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -5039,9 +5029,6 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5091,7 +5078,7 @@
               </c:extLst>
               <c:f>Threshold_evaluation_for_COUNTI!$A$2:$A$1048576</c:f>
               <c:strCache>
-                <c:ptCount val="361"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
                   <c:v>0.964</c:v>
                 </c:pt>
@@ -6171,9 +6158,6 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>0.9999</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>100,000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6183,14 +6167,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Threshold_evaluation_for_COUNTI!$D$2:$D$362</c15:sqref>
+                    <c15:sqref>Threshold_evaluation_for_COUNTI!$D$2:$D$361</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Threshold_evaluation_for_COUNTI!$D$3:$D$362</c:f>
+              <c:f>Threshold_evaluation_for_COUNTI!$D$3:$D$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="360"/>
+                <c:ptCount val="359"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -7267,9 +7251,6 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8487,11 +8468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E362"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8610,7 +8591,7 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -13552,20 +13533,6 @@
       </c>
       <c r="D361">
         <v>7</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
-        <v>100000</v>
-      </c>
-      <c r="B362">
-        <v>9</v>
-      </c>
-      <c r="C362">
-        <v>9</v>
-      </c>
-      <c r="D362">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
